--- a/军队.xlsx
+++ b/军队.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>中央军委印发新修订的《军队基层建设纲要》</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>日前，中央军委印发《关于表彰全军正规化建设先进单位的通报》，对10个全军正规化建设先进单位予以表彰。全军正规化建设先进单位（10个）：75620部队、66029部队、91319部队、93357部队、96713部队、63783部队、61889部队五大队、湖南省株洲市天元区人民武装部、63836部队、武警山东省总队聊城支队。通报要求，全军部队要以先进单位为榜样、深入贯彻习近平强军思想，认真落实军委《关于全面从严加强部队管理的意见》，坚持全面从严治军，坚持战斗力这个唯一的根本的标准，弘扬优良传统，创新管理模式，在新的起点上推进部队正规化建设再上新台阶。</t>
+  </si>
+  <si>
+    <t>中央军委办公厅印发新修订的《军队社会团体管理工作规定》</t>
+  </si>
+  <si>
+    <t>经中央军委批准，中央军委办公厅近日印发新修订的《军队社会团体管理工作规定》，2020年3月24日起施行。新修订的《规定》共7章49条，修订内容主要是规范军队各类人员参加社团的基本条件；调整军队在职专业技术人员参加社团、兼任社团负责人数量；规范军队管理的离退休人员参加社团的年龄界限，以及军队人员在社团党组织兼任职务问题；完善军队单位参加社团和社团活动相关规定；完善军队人员和单位参加人民团体免于登记社团的办理办法；完善军队主管的社团管理相关规定；规范各级落实社团管理工作的监督管理责任，明确对违反规定人员和单位的问责处理办法。新修订的《规定》对军队社团管理工作进行了系统规范完善，更具科学性、针对性、操作性。</t>
   </si>
 </sst>
 </file>
@@ -510,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" activeCellId="1" sqref="B26:C26 L12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -802,6 +808,17 @@
       </c>
       <c r="C26" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>20200329</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
